--- a/exports/shorts/dog.xlsx
+++ b/exports/shorts/dog.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,14 +623,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gabe Silverstein</t>
+          <t>Yvonne Nguyen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -648,14 +648,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Yvonne Nguyen</t>
+          <t>Gabe Silverstein</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -698,11 +698,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Levin Lee</t>
+          <t>Kevin Lee</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -773,14 +773,14 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Nathan Snow</t>
+          <t>Cason Duszak</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -798,48 +798,48 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Rohan Chowla</t>
+          <t>Nathan Snow</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Kevin Cooper</t>
+          <t>Rohan Chowla</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -848,14 +848,14 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Cason Duszak</t>
+          <t>Kevin Cooper</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -898,14 +898,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piper Parker</t>
+          <t>Luci Nguyen</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -917,20 +917,20 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Anna Brown</t>
+          <t>Matthew Rusten</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -942,17 +942,17 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Helen Dunn</t>
+          <t>Anna Brown</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -961,51 +961,51 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Noah Dale</t>
+          <t>Piper Parker</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Kristian Banlaoi</t>
+          <t>Helen Dunn</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1014,23 +1014,23 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Rose Roché</t>
+          <t>Eric LastName</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1039,23 +1039,23 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Sam Carswell-Tellis</t>
+          <t>Noah Dale</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1064,23 +1064,23 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Matthew Rusten</t>
+          <t>Kristian Banlaoi</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1098,14 +1098,14 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Cassie Deering</t>
+          <t>Rose Roché</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1123,14 +1123,14 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Brian Tafazoli</t>
+          <t>Sam Tellis</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Evan Sooklal</t>
+          <t>Cassie Deering</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1173,25 +1173,200 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
+          <t>Alex LastName</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Brian Tafazoli</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Yafu LastName</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Kim LastName</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Julie Jackson</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Carolyn LastName</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Evan Sooklal</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>Paul Bartenfeld</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>6</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
